--- a/data/trans_orig/P32D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32D_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>45651</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26576</v>
+        <v>25897</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>69272</v>
+        <v>68578</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2746017251813881</v>
+        <v>0.274601725181388</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1598597561409194</v>
+        <v>0.1557765667031162</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4166900095485983</v>
+        <v>0.4125148326622319</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -762,19 +762,19 @@
         <v>45106</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32562</v>
+        <v>31469</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59502</v>
+        <v>59799</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3997304282774534</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2885621434591358</v>
+        <v>0.2788821356012154</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5273080214683631</v>
+        <v>0.5299388846855009</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -783,19 +783,19 @@
         <v>90757</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>68504</v>
+        <v>68563</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>118988</v>
+        <v>116437</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3251944447652895</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2454619087487515</v>
+        <v>0.2456705010766679</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4263507510602716</v>
+        <v>0.4172096671534933</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>45174</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>29122</v>
+        <v>29165</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>63920</v>
+        <v>64801</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.271735231482593</v>
+        <v>0.2717352314825929</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1751789639222278</v>
+        <v>0.1754339723408855</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3844962315374624</v>
+        <v>0.3897997849097911</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -833,19 +833,19 @@
         <v>17288</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8816</v>
+        <v>8948</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28211</v>
+        <v>27149</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1532063537187773</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07812839681971616</v>
+        <v>0.07929322658574429</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2500044872815699</v>
+        <v>0.2405962424758644</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -854,19 +854,19 @@
         <v>62462</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>43942</v>
+        <v>43248</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>83473</v>
+        <v>83262</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2238109892669968</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1574494878342278</v>
+        <v>0.1549642947569679</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2990962295170025</v>
+        <v>0.2983393743408654</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>32138</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19409</v>
+        <v>18227</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>50764</v>
+        <v>49579</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.193322382714948</v>
+        <v>0.1933223827149479</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1167516030245641</v>
+        <v>0.1096411586050481</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3053621910942888</v>
+        <v>0.2982297327203822</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -904,19 +904,19 @@
         <v>26228</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15941</v>
+        <v>15345</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>39818</v>
+        <v>38910</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2324366751383238</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1412689752646364</v>
+        <v>0.1359837178256058</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3528718124645018</v>
+        <v>0.3448203789913703</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>30</v>
@@ -925,19 +925,19 @@
         <v>58367</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>40231</v>
+        <v>40459</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>79452</v>
+        <v>81077</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2091372867244565</v>
+        <v>0.2091372867244566</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1441519591115519</v>
+        <v>0.1449718272633646</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2846900376728091</v>
+        <v>0.2905116947090814</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>13728</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5087</v>
+        <v>5691</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30090</v>
+        <v>31615</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08257773016243666</v>
+        <v>0.08257773016243662</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03060234454620594</v>
+        <v>0.03423145433399646</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1810027933290438</v>
+        <v>0.1901720151934594</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -975,19 +975,19 @@
         <v>6258</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1670</v>
+        <v>1661</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14720</v>
+        <v>15086</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05545507429529262</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01479693939947356</v>
+        <v>0.01471717057983492</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1304509442429854</v>
+        <v>0.1336954794418631</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -996,19 +996,19 @@
         <v>19986</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10176</v>
+        <v>9851</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35453</v>
+        <v>37758</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07161135003777741</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03646125478844846</v>
+        <v>0.0352986899215198</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1270326437525828</v>
+        <v>0.1352926043430536</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>15863</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7258</v>
+        <v>6598</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>29702</v>
+        <v>30597</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.09542310688451473</v>
+        <v>0.09542310688451469</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04365734028201049</v>
+        <v>0.03968782065278428</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1786663505380099</v>
+        <v>0.1840477473080845</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -1046,19 +1046,19 @@
         <v>6145</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1889</v>
+        <v>2011</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13559</v>
+        <v>15537</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05445648555756434</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01673732230901834</v>
+        <v>0.01781989492623497</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1201623724111825</v>
+        <v>0.1376904897544022</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -1067,19 +1067,19 @@
         <v>22008</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12650</v>
+        <v>11736</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>38794</v>
+        <v>37454</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.07885925915164829</v>
+        <v>0.07885925915164831</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04532686383761854</v>
+        <v>0.04205221562441742</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1390031201459873</v>
+        <v>0.1342031302854584</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>8702</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2641</v>
+        <v>2643</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23026</v>
+        <v>25927</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.05234529213203091</v>
+        <v>0.05234529213203089</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01588740192588587</v>
+        <v>0.01589713110465999</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1385104685168491</v>
+        <v>0.1559565865723413</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -1117,19 +1117,19 @@
         <v>9493</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3452</v>
+        <v>2993</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21403</v>
+        <v>20506</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.08412483029094145</v>
+        <v>0.08412483029094148</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03058812971120874</v>
+        <v>0.02652384514301866</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1896751871365978</v>
+        <v>0.1817286322684697</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>9</v>
@@ -1138,19 +1138,19 @@
         <v>18195</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8589</v>
+        <v>9168</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>33079</v>
+        <v>36099</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06519456829966838</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03077674141242846</v>
+        <v>0.0328500719853896</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1185279344545051</v>
+        <v>0.1293489628940721</v>
       </c>
     </row>
     <row r="10">
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7608</v>
+        <v>8455</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02059015272164717</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06742643642767189</v>
+        <v>0.07492681335319742</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7616</v>
+        <v>9678</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008325122830021212</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02729037092672966</v>
+        <v>0.03467654407697515</v>
       </c>
     </row>
     <row r="11">
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10152</v>
+        <v>9767</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01099634152482326</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0610677387954845</v>
+        <v>0.0587497272567141</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9884</v>
+        <v>12118</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006550240754586093</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03541458828803099</v>
+        <v>0.04341891746221603</v>
       </c>
     </row>
     <row r="12">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10719</v>
+        <v>10314</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01899818991726543</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06447554428825546</v>
+        <v>0.06204286098304494</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11438</v>
+        <v>11431</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01131673816955578</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04098339178938304</v>
+        <v>0.04095756402313489</v>
       </c>
     </row>
     <row r="13">
@@ -1431,19 +1431,19 @@
         <v>41387</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>26698</v>
+        <v>27144</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>59683</v>
+        <v>58061</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1669016631207393</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1076661617950279</v>
+        <v>0.109464418591722</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2406852306912262</v>
+        <v>0.2341462170997198</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>43</v>
@@ -1452,19 +1452,19 @@
         <v>44303</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>33414</v>
+        <v>33806</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>56223</v>
+        <v>56986</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2895816082849333</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.218402454447765</v>
+        <v>0.2209692911163684</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3674903502207846</v>
+        <v>0.3724768290882672</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>67</v>
@@ -1473,19 +1473,19 @@
         <v>85690</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>67631</v>
+        <v>68203</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>106534</v>
+        <v>107624</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2137114611617263</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1686730899857939</v>
+        <v>0.1700992122695765</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2656955086578492</v>
+        <v>0.2684154049776867</v>
       </c>
     </row>
     <row r="15">
@@ -1502,19 +1502,19 @@
         <v>78329</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>60899</v>
+        <v>59150</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>99232</v>
+        <v>100567</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3158801919740614</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2455902168879494</v>
+        <v>0.2385350091988582</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4001772585505904</v>
+        <v>0.405558216545294</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>44</v>
@@ -1523,19 +1523,19 @@
         <v>47225</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>35972</v>
+        <v>36562</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>60023</v>
+        <v>60061</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3086784826845392</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2351257972151188</v>
+        <v>0.2389821208316754</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3923285677786532</v>
+        <v>0.3925816497198703</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>93</v>
@@ -1544,19 +1544,19 @@
         <v>125554</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>105206</v>
+        <v>102798</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>148258</v>
+        <v>147308</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3131323055371931</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2623848689980922</v>
+        <v>0.2563774335226024</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.369756063672147</v>
+        <v>0.3673862231649044</v>
       </c>
     </row>
     <row r="16">
@@ -1573,19 +1573,19 @@
         <v>76881</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>58539</v>
+        <v>59283</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>98909</v>
+        <v>99165</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3100388338794811</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2360716306378507</v>
+        <v>0.2390707043502419</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3988741354019791</v>
+        <v>0.3999042449730769</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -1594,19 +1594,19 @@
         <v>35155</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24222</v>
+        <v>26147</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>47593</v>
+        <v>47075</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2297835634116815</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1583204996075352</v>
+        <v>0.1709084017973681</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3110843359974448</v>
+        <v>0.3077003069875384</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>81</v>
@@ -1615,19 +1615,19 @@
         <v>112035</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>91255</v>
+        <v>92931</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>136449</v>
+        <v>137715</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2794166079134155</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2275913022291449</v>
+        <v>0.2317688755540454</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3403037383423261</v>
+        <v>0.3434612784028263</v>
       </c>
     </row>
     <row r="17">
@@ -1644,19 +1644,19 @@
         <v>23450</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13018</v>
+        <v>13355</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37072</v>
+        <v>38965</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.09456859713733122</v>
+        <v>0.09456859713733121</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05249738031904101</v>
+        <v>0.05385543245411668</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1495027575582392</v>
+        <v>0.1571345123004597</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -1665,19 +1665,19 @@
         <v>10336</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4684</v>
+        <v>5121</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18224</v>
+        <v>18021</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06755696941861833</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03061581114245359</v>
+        <v>0.0334739334153896</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1191160954745052</v>
+        <v>0.117790843030366</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -1686,19 +1686,19 @@
         <v>33786</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>21075</v>
+        <v>20088</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>50952</v>
+        <v>49349</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08426203206201269</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05256009690247056</v>
+        <v>0.05009889042323172</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.127073793037389</v>
+        <v>0.1230769707178717</v>
       </c>
     </row>
     <row r="18">
@@ -1715,19 +1715,19 @@
         <v>20216</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11328</v>
+        <v>10732</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>35214</v>
+        <v>34944</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0815261059713579</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04568365647727175</v>
+        <v>0.04327896711315913</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1420092095304272</v>
+        <v>0.1409188881084152</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>7</v>
@@ -1736,19 +1736,19 @@
         <v>9570</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4163</v>
+        <v>4362</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19568</v>
+        <v>18659</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.06255558436285624</v>
+        <v>0.06255558436285626</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02720924206782622</v>
+        <v>0.02850908563732434</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1279055147153005</v>
+        <v>0.1219598859249454</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>19</v>
@@ -1757,19 +1757,19 @@
         <v>29787</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>18651</v>
+        <v>18640</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>47471</v>
+        <v>46964</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.07428770784493521</v>
+        <v>0.0742877078449352</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04651576655398961</v>
+        <v>0.04648844535405517</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1183923014213442</v>
+        <v>0.1171274917490578</v>
       </c>
     </row>
     <row r="19">
@@ -1786,19 +1786,19 @@
         <v>6799</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2457</v>
+        <v>2486</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15060</v>
+        <v>15353</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02741679886622995</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009907953781402518</v>
+        <v>0.01002634118430303</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0607339794830923</v>
+        <v>0.06191380872554101</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -1810,16 +1810,16 @@
         <v>2582</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13132</v>
+        <v>13720</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.0418437918373712</v>
+        <v>0.04184379183737119</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01687720425433089</v>
+        <v>0.01687424303487034</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08583553077081611</v>
+        <v>0.08967547849384748</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -1828,19 +1828,19 @@
         <v>13200</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6927</v>
+        <v>6074</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24354</v>
+        <v>23100</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03292156679234869</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01727682227423666</v>
+        <v>0.015148520631363</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06073786920204954</v>
+        <v>0.05761097137398107</v>
       </c>
     </row>
     <row r="20">
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4931</v>
+        <v>4519</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003667809050799125</v>
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01988457390363938</v>
+        <v>0.01822472556148619</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5141</v>
+        <v>4148</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002268318688368466</v>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01282077167020455</v>
+        <v>0.01034450382931236</v>
       </c>
     </row>
     <row r="23">
@@ -2089,19 +2089,19 @@
         <v>41846</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>30918</v>
+        <v>30150</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>56476</v>
+        <v>55865</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1337869461332197</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09884847475240723</v>
+        <v>0.09639101689427326</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1805593887525263</v>
+        <v>0.1786046824277163</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>90</v>
@@ -2110,19 +2110,19 @@
         <v>63460</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>53549</v>
+        <v>53702</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>74795</v>
+        <v>74512</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.3734321170524281</v>
+        <v>0.373432117052428</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3151134899018179</v>
+        <v>0.3160131091947488</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4401350080850732</v>
+        <v>0.4384686491724269</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>127</v>
@@ -2131,19 +2131,19 @@
         <v>105306</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>89233</v>
+        <v>89630</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>123122</v>
+        <v>124045</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2181512863202068</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1848546591038947</v>
+        <v>0.1856773040528021</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2550598356731654</v>
+        <v>0.2569702767790313</v>
       </c>
     </row>
     <row r="25">
@@ -2160,19 +2160,19 @@
         <v>129454</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>110365</v>
+        <v>111147</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>146114</v>
+        <v>150182</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4138781506576803</v>
+        <v>0.4138781506576802</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3528462520957874</v>
+        <v>0.3553484275413973</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4671416821383318</v>
+        <v>0.4801449914920484</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>91</v>
@@ -2181,19 +2181,19 @@
         <v>69288</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>58123</v>
+        <v>58386</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>80666</v>
+        <v>80494</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4077327047316458</v>
+        <v>0.4077327047316457</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3420289958413185</v>
+        <v>0.3435755650697103</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4746827536627918</v>
+        <v>0.4736740850164422</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>201</v>
@@ -2202,19 +2202,19 @@
         <v>198743</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>176676</v>
+        <v>176148</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>218060</v>
+        <v>220475</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4117147167411275</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3660007913645377</v>
+        <v>0.3649080090383683</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4517312093392716</v>
+        <v>0.45673522700307</v>
       </c>
     </row>
     <row r="26">
@@ -2231,19 +2231,19 @@
         <v>85714</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>68820</v>
+        <v>68237</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>103752</v>
+        <v>102827</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2740372574087155</v>
+        <v>0.2740372574087154</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2200243638380846</v>
+        <v>0.2181596074860488</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3317057110134772</v>
+        <v>0.3287474129003073</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>33</v>
@@ -2252,19 +2252,19 @@
         <v>25404</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>18235</v>
+        <v>17912</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>34334</v>
+        <v>34137</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1494917002837505</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1073025578322026</v>
+        <v>0.1054021897498124</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2020412139172577</v>
+        <v>0.2008833851850681</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>106</v>
@@ -2273,19 +2273,19 @@
         <v>111118</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>92828</v>
+        <v>93856</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>131802</v>
+        <v>132576</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2301924191849122</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1923014422453512</v>
+        <v>0.1944323305884606</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2730399207084107</v>
+        <v>0.2746435527669286</v>
       </c>
     </row>
     <row r="27">
@@ -2302,19 +2302,19 @@
         <v>26084</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>17213</v>
+        <v>17088</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>38512</v>
+        <v>38088</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.08339366858535309</v>
+        <v>0.08339366858535306</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05503081319795208</v>
+        <v>0.05463059588560656</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1231259698377625</v>
+        <v>0.1217709093363177</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>7</v>
@@ -2323,19 +2323,19 @@
         <v>5195</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2199</v>
+        <v>2238</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>10496</v>
+        <v>10466</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03056813248134244</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01294248554908735</v>
+        <v>0.01316960772002507</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.06176709624053014</v>
+        <v>0.06158706609019348</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>30</v>
@@ -2344,19 +2344,19 @@
         <v>31279</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>21242</v>
+        <v>21159</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>43491</v>
+        <v>43940</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.06479704307712961</v>
+        <v>0.06479704307712959</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04400470076583668</v>
+        <v>0.0438335192585429</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.09009524740861698</v>
+        <v>0.09102611865261175</v>
       </c>
     </row>
     <row r="28">
@@ -2373,19 +2373,19 @@
         <v>14793</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8067</v>
+        <v>8506</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>23874</v>
+        <v>24070</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.0472953706652485</v>
+        <v>0.04729537066524849</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02579109932887448</v>
+        <v>0.02719380596198151</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07632670769772668</v>
+        <v>0.07695510500503538</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -2394,19 +2394,19 @@
         <v>2645</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>772</v>
+        <v>788</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7726</v>
+        <v>6835</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.01556419014741262</v>
+        <v>0.01556419014741261</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004542524561535101</v>
+        <v>0.004636267718745518</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04546395007462178</v>
+        <v>0.04022233371906977</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>17</v>
@@ -2415,19 +2415,19 @@
         <v>17438</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>10751</v>
+        <v>10441</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>27475</v>
+        <v>27537</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.03612477166058966</v>
+        <v>0.03612477166058967</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0222713398431966</v>
+        <v>0.02162998028010007</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05691781239159863</v>
+        <v>0.05704534705238837</v>
       </c>
     </row>
     <row r="29">
@@ -2444,19 +2444,19 @@
         <v>11618</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6669</v>
+        <v>5721</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>22366</v>
+        <v>20782</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.03714368443137569</v>
+        <v>0.03714368443137568</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02132220128404962</v>
+        <v>0.01829204432441156</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07150480128409432</v>
+        <v>0.06644198942304516</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -2465,19 +2465,19 @@
         <v>2402</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7318</v>
+        <v>6525</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01413648233439332</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.004220951333518301</v>
+        <v>0.004184209449110798</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04306613634175654</v>
+        <v>0.03839841726005657</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>13</v>
@@ -2486,19 +2486,19 @@
         <v>14020</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7934</v>
+        <v>7558</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>23317</v>
+        <v>23544</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02904426220218773</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01643686566315564</v>
+        <v>0.01565624094828397</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04830285805931565</v>
+        <v>0.04877307387342163</v>
       </c>
     </row>
     <row r="30">
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5665</v>
+        <v>6752</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.003632267336751782</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01811241925959989</v>
+        <v>0.0215874893409022</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -2539,16 +2539,16 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>4116</v>
+        <v>3683</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.004331316922346082</v>
+        <v>0.004331316922346081</v>
       </c>
       <c r="O30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02422267903086624</v>
+        <v>0.02167211117331267</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6225</v>
+        <v>7135</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.00387835974420752</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01289478766435842</v>
+        <v>0.01478044615839446</v>
       </c>
     </row>
     <row r="31">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7533</v>
+        <v>7343</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.006832654781655643</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02408526474898019</v>
+        <v>0.02347699596266834</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -2657,16 +2657,16 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>4618</v>
+        <v>4029</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.00474335604668116</v>
+        <v>0.004743356046681159</v>
       </c>
       <c r="O32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02717721053059407</v>
+        <v>0.02370683173695785</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3</v>
@@ -2675,19 +2675,19 @@
         <v>2943</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>8144</v>
+        <v>7973</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.006097141069639087</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001671034144499086</v>
+        <v>0.001670015823698617</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01687092415281479</v>
+        <v>0.01651656090018728</v>
       </c>
     </row>
     <row r="33">
@@ -2779,19 +2779,19 @@
         <v>85114</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>69766</v>
+        <v>68954</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>102535</v>
+        <v>102450</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2405437373236391</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1971685110419361</v>
+        <v>0.1948749623684025</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2897781134259134</v>
+        <v>0.289538914805513</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>134</v>
@@ -2800,19 +2800,19 @@
         <v>82889</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>72299</v>
+        <v>71858</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>93903</v>
+        <v>94011</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3949802011058055</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3445149306282985</v>
+        <v>0.3424166743524759</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4474628214972177</v>
+        <v>0.4479795253188622</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>217</v>
@@ -2821,19 +2821,19 @@
         <v>168002</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>150284</v>
+        <v>147025</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>191838</v>
+        <v>187603</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2980383430193509</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2666049045836806</v>
+        <v>0.260824528765085</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3403233191476528</v>
+        <v>0.3328100473926133</v>
       </c>
     </row>
     <row r="35">
@@ -2850,19 +2850,19 @@
         <v>157496</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>137321</v>
+        <v>138722</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>176503</v>
+        <v>176119</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.4451078311406895</v>
+        <v>0.4451078311406896</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3880895536296498</v>
+        <v>0.3920503127697674</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4988231580218105</v>
+        <v>0.4977400038949128</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>112</v>
@@ -2871,19 +2871,19 @@
         <v>76476</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>65107</v>
+        <v>65257</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>86873</v>
+        <v>87788</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3644194192174629</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3102482890320403</v>
+        <v>0.3109593781435309</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4139640728903654</v>
+        <v>0.418322886183864</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>259</v>
@@ -2892,19 +2892,19 @@
         <v>233972</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>211537</v>
+        <v>212424</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>256457</v>
+        <v>257278</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.4150686272239084</v>
+        <v>0.4150686272239085</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3752694299975656</v>
+        <v>0.3768422269350595</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4549584520497961</v>
+        <v>0.456414120243411</v>
       </c>
     </row>
     <row r="36">
@@ -2921,19 +2921,19 @@
         <v>67607</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>53664</v>
+        <v>51713</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>86008</v>
+        <v>83418</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1910668082115746</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1516630566344901</v>
+        <v>0.1461491432626773</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2430723205616342</v>
+        <v>0.2357507541302253</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>48</v>
@@ -2942,19 +2942,19 @@
         <v>32958</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>25644</v>
+        <v>24787</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>43203</v>
+        <v>41915</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.157052284503844</v>
+        <v>0.1570522845038439</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.122198211830025</v>
+        <v>0.1181120991267971</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2058708263127545</v>
+        <v>0.1997314908078464</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>111</v>
@@ -2963,19 +2963,19 @@
         <v>100565</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>84543</v>
+        <v>82728</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>120419</v>
+        <v>119158</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1784036613056608</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1499802301307676</v>
+        <v>0.146761105406296</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2136246841512479</v>
+        <v>0.2113870100297104</v>
       </c>
     </row>
     <row r="37">
@@ -2992,19 +2992,19 @@
         <v>13154</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>7131</v>
+        <v>7227</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>22313</v>
+        <v>22189</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03717404619679505</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02015419575251855</v>
+        <v>0.02042592480756264</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06306065083863299</v>
+        <v>0.06271087306625361</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>10</v>
@@ -3013,19 +3013,19 @@
         <v>6796</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3364</v>
+        <v>3504</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>12119</v>
+        <v>12069</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.03238297399811321</v>
+        <v>0.03238297399811322</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01603025495119439</v>
+        <v>0.01669882537073986</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05775023283228202</v>
+        <v>0.05750857751624524</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>22</v>
@@ -3034,19 +3034,19 @@
         <v>19949</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>12765</v>
+        <v>12755</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>30565</v>
+        <v>31078</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03539039484803432</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02264525790261946</v>
+        <v>0.02262696479033184</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05422226541169234</v>
+        <v>0.05513207889995377</v>
       </c>
     </row>
     <row r="38">
@@ -3063,19 +3063,19 @@
         <v>10918</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>5473</v>
+        <v>5527</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>19255</v>
+        <v>18801</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.03085615494633474</v>
+        <v>0.03085615494633473</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01546656965366426</v>
+        <v>0.01562152447997655</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.05441658834873078</v>
+        <v>0.05313540272441004</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>11</v>
@@ -3084,19 +3084,19 @@
         <v>7172</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3973</v>
+        <v>3760</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>11605</v>
+        <v>12260</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.03417739484706445</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01892997714322658</v>
+        <v>0.01791550582443992</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.05529902624775009</v>
+        <v>0.05842180638251023</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>21</v>
@@ -3105,19 +3105,19 @@
         <v>18090</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>10567</v>
+        <v>11878</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>27401</v>
+        <v>27382</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.03209260761973097</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01874647384322888</v>
+        <v>0.02107169325937087</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.04860980749435269</v>
+        <v>0.0485752360981042</v>
       </c>
     </row>
     <row r="39">
@@ -3134,19 +3134,19 @@
         <v>14054</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>7686</v>
+        <v>7823</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>22781</v>
+        <v>24397</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.03971789856052303</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.02172187669972846</v>
+        <v>0.02210873216292946</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.06438230372674023</v>
+        <v>0.06895049981671855</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>4</v>
@@ -3155,19 +3155,19 @@
         <v>2825</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>6490</v>
+        <v>7096</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.01346343635317892</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.003304013496782849</v>
+        <v>0.003364872321044199</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.0309264460299641</v>
+        <v>0.03381409373444524</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>17</v>
@@ -3176,19 +3176,19 @@
         <v>16879</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>9571</v>
+        <v>9956</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>25906</v>
+        <v>26344</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.02994371754525865</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.01697981387680812</v>
+        <v>0.01766267654829856</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.04595722776407822</v>
+        <v>0.0467349079181351</v>
       </c>
     </row>
     <row r="40">
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4698</v>
+        <v>5126</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.002288370545561725</v>
@@ -3217,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01327669026685507</v>
+        <v>0.01448623028629995</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4826</v>
+        <v>4063</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001436441156733377</v>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.008561953152427429</v>
+        <v>0.007207317036691558</v>
       </c>
     </row>
     <row r="41">
@@ -3315,19 +3315,19 @@
         <v>4687</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1499</v>
+        <v>1857</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>10943</v>
+        <v>10674</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.01324515307488208</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.0042362024837573</v>
+        <v>0.005249321275593211</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.03092559543792059</v>
+        <v>0.0301668176865525</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1</v>
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>4433</v>
+        <v>3743</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.003524289974531069</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.0211254476754818</v>
+        <v>0.01783777363590544</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>6</v>
@@ -3357,19 +3357,19 @@
         <v>5426</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2078</v>
+        <v>2052</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>11167</v>
+        <v>11172</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.009626207281322574</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.003686471580360312</v>
+        <v>0.00364054802288863</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.01981102494349544</v>
+        <v>0.01981854834946492</v>
       </c>
     </row>
     <row r="43">
@@ -3461,19 +3461,19 @@
         <v>48888</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>37886</v>
+        <v>38088</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>61778</v>
+        <v>62243</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.1752209308790477</v>
+        <v>0.1752209308790476</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1357876971819246</v>
+        <v>0.1365133799926453</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2214203510458304</v>
+        <v>0.2230875073328757</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>119</v>
@@ -3482,19 +3482,19 @@
         <v>72258</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>62882</v>
+        <v>62654</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>82559</v>
+        <v>80859</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.4920492941482575</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.4282020600437598</v>
+        <v>0.4266474241414915</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.5621949464847015</v>
+        <v>0.5506183477963399</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>174</v>
@@ -3503,19 +3503,19 @@
         <v>121146</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>105144</v>
+        <v>106273</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>137626</v>
+        <v>137737</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2844750230218384</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2468980243121023</v>
+        <v>0.2495490052898252</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3231718284521941</v>
+        <v>0.3234333798792527</v>
       </c>
     </row>
     <row r="45">
@@ -3532,19 +3532,19 @@
         <v>123926</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>108934</v>
+        <v>107556</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>138753</v>
+        <v>139757</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.4441675640213573</v>
+        <v>0.4441675640213572</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.390433491733604</v>
+        <v>0.3854969866267317</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4973103443410524</v>
+        <v>0.5009071591517348</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>74</v>
@@ -3553,19 +3553,19 @@
         <v>44859</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>36374</v>
+        <v>36817</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>53957</v>
+        <v>52786</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>0.3054728294597493</v>
+        <v>0.3054728294597492</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.2476911133625092</v>
+        <v>0.2507072381132766</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.3674237852970824</v>
+        <v>0.359452570996442</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>208</v>
@@ -3574,19 +3574,19 @@
         <v>168785</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>149915</v>
+        <v>151014</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>187462</v>
+        <v>185962</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.3963405097981901</v>
+        <v>0.39634050979819</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.3520294954795659</v>
+        <v>0.3546102402265898</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.4401978330205174</v>
+        <v>0.4366757161444476</v>
       </c>
     </row>
     <row r="46">
@@ -3603,19 +3603,19 @@
         <v>57293</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>44841</v>
+        <v>44316</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>70851</v>
+        <v>71328</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.2053445031279685</v>
+        <v>0.2053445031279684</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1607171309678768</v>
+        <v>0.1588349326123022</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2539381861920276</v>
+        <v>0.2556485217775594</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>27</v>
@@ -3624,19 +3624,19 @@
         <v>18339</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>12513</v>
+        <v>12398</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>25604</v>
+        <v>25060</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.124881836664403</v>
+        <v>0.1248818366644029</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.08521111340200348</v>
+        <v>0.08442628801069743</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1743545221689143</v>
+        <v>0.1706459917726902</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>86</v>
@@ -3645,19 +3645,19 @@
         <v>75632</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>61465</v>
+        <v>62370</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>92003</v>
+        <v>89765</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.1775980113519294</v>
+        <v>0.1775980113519295</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1443320256463796</v>
+        <v>0.1464566726944508</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2160407541868919</v>
+        <v>0.2107865252453895</v>
       </c>
     </row>
     <row r="47">
@@ -3674,19 +3674,19 @@
         <v>25661</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>17219</v>
+        <v>18001</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>35557</v>
+        <v>36446</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.09197336332804285</v>
+        <v>0.09197336332804283</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.06171400826509969</v>
+        <v>0.0645170862741975</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1274406787759341</v>
+        <v>0.1306258056688887</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>7</v>
@@ -3695,19 +3695,19 @@
         <v>4684</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>2089</v>
+        <v>2032</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>8921</v>
+        <v>8795</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.0318958074688423</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.0142252579744983</v>
+        <v>0.013837695057282</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.06075072425113283</v>
+        <v>0.05988851317634469</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>35</v>
@@ -3716,19 +3716,19 @@
         <v>30345</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>21123</v>
+        <v>20660</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>42778</v>
+        <v>41749</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.07125640871000713</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.04960112220827188</v>
+        <v>0.0485125769233067</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1004512720364656</v>
+        <v>0.09803417379168183</v>
       </c>
     </row>
     <row r="48">
@@ -3745,19 +3745,19 @@
         <v>5951</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2520</v>
+        <v>2406</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>11812</v>
+        <v>12093</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.02132872563422826</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.009031608918959742</v>
+        <v>0.00862271215065495</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.04233749075092815</v>
+        <v>0.04334364413436809</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>3</v>
@@ -3766,19 +3766,19 @@
         <v>1821</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>5218</v>
+        <v>4562</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.01240228357953388</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.003574361173051343</v>
+        <v>0.003585668301837309</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.03553054214386972</v>
+        <v>0.03106368079059705</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>10</v>
@@ -3787,19 +3787,19 @@
         <v>7772</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>3643</v>
+        <v>3756</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>13871</v>
+        <v>13550</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.0182505595486932</v>
+        <v>0.01825055954869321</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.008554981136986746</v>
+        <v>0.008820362235016636</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.03257174594740736</v>
+        <v>0.03181782448686316</v>
       </c>
     </row>
     <row r="49">
@@ -3816,19 +3816,19 @@
         <v>7994</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>3476</v>
+        <v>4067</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>14235</v>
+        <v>15395</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.02865022163893409</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.01245701399643174</v>
+        <v>0.01457590718075223</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.05101934929657136</v>
+        <v>0.05517824139969436</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>4</v>
@@ -3837,19 +3837,19 @@
         <v>2246</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>5676</v>
+        <v>5692</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.01529627912558294</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.003848649240357448</v>
+        <v>0.003843245302550011</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.03865070309567858</v>
+        <v>0.03875698904047759</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>13</v>
@@ -3858,19 +3858,19 @@
         <v>10240</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>5337</v>
+        <v>5276</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>16770</v>
+        <v>16673</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.02404529027872155</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.01253301343923716</v>
+        <v>0.01238790502317043</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.03937914126817516</v>
+        <v>0.0391523120751292</v>
       </c>
     </row>
     <row r="50">
@@ -3887,19 +3887,19 @@
         <v>2118</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>5739</v>
+        <v>5720</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.007590538339483156</v>
+        <v>0.007590538339483154</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.002113369333066282</v>
+        <v>0.002106679688048078</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.02056774239070409</v>
+        <v>0.02049993225469164</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>2</v>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>4678</v>
+        <v>4085</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.009221498212970148</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.03185666394391175</v>
+        <v>0.02781633388687002</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>5</v>
@@ -3929,19 +3929,19 @@
         <v>3472</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1284</v>
+        <v>1299</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>8024</v>
+        <v>7736</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.008152953391154948</v>
+        <v>0.00815295339115495</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.003016042338551056</v>
+        <v>0.003049865538417387</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.01884096390757406</v>
+        <v>0.01816651503528952</v>
       </c>
     </row>
     <row r="51">
@@ -3958,19 +3958,19 @@
         <v>3616</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>954</v>
+        <v>1112</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>9250</v>
+        <v>8842</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.01295893799466992</v>
+        <v>0.01295893799466991</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.003420358425851169</v>
+        <v>0.003985587682526097</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.03315467824993763</v>
+        <v>0.03169059931501893</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>0</v>
@@ -3992,19 +3992,19 @@
         <v>3616</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>9548</v>
+        <v>8713</v>
       </c>
       <c r="U51" s="6" t="n">
-        <v>0.008490218745126732</v>
+        <v>0.008490218745126735</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.002199787179699614</v>
+        <v>0.002201968695702829</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.02242030822984706</v>
+        <v>0.02046028306643593</v>
       </c>
     </row>
     <row r="52">
@@ -4021,19 +4021,19 @@
         <v>3562</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>952</v>
+        <v>926</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>8632</v>
+        <v>8906</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.01276521503626847</v>
+        <v>0.01276521503626846</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.003412905709243942</v>
+        <v>0.003319991928915744</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.03093913553087395</v>
+        <v>0.03192078767098125</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>2</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>4591</v>
+        <v>4574</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.008780171340660912</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.0312660992591421</v>
+        <v>0.03114568181651553</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>6</v>
@@ -4063,19 +4063,19 @@
         <v>4851</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>1817</v>
+        <v>1737</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>10212</v>
+        <v>9990</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01139102515433858</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.004266224712133331</v>
+        <v>0.004078617789159076</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.02397961797473106</v>
+        <v>0.02345801863088103</v>
       </c>
     </row>
     <row r="53">
@@ -4167,19 +4167,19 @@
         <v>54988</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>44224</v>
+        <v>43577</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>66963</v>
+        <v>65476</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2683996890250062</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2158588376823909</v>
+        <v>0.2127018808936784</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3268464150788034</v>
+        <v>0.3195905562878779</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>82</v>
@@ -4188,19 +4188,19 @@
         <v>42626</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>36201</v>
+        <v>36085</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>49239</v>
+        <v>49381</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.5274709263689568</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.4479643361197534</v>
+        <v>0.4465283960837996</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.6092985926949235</v>
+        <v>0.6110589669004362</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>155</v>
@@ -4209,19 +4209,19 @@
         <v>97614</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>84420</v>
+        <v>85985</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>110391</v>
+        <v>111035</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.3416829300031919</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2954966907110758</v>
+        <v>0.3009772981066071</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3864049216034451</v>
+        <v>0.3886605353037305</v>
       </c>
     </row>
     <row r="55">
@@ -4238,19 +4238,19 @@
         <v>94598</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>83172</v>
+        <v>82948</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>107488</v>
+        <v>108057</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.4617364879980072</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.4059668257357319</v>
+        <v>0.4048713458235397</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.5246513928492801</v>
+        <v>0.5274312234539403</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>48</v>
@@ -4259,19 +4259,19 @@
         <v>25857</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>19974</v>
+        <v>19635</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>32121</v>
+        <v>32368</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.3199599713151275</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.247160799357233</v>
+        <v>0.2429657918487592</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.3974787363478084</v>
+        <v>0.4005386349218624</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>182</v>
@@ -4280,19 +4280,19 @@
         <v>120455</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>107763</v>
+        <v>107916</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>134162</v>
+        <v>134360</v>
       </c>
       <c r="U55" s="6" t="n">
-        <v>0.4216322960250273</v>
+        <v>0.4216322960250272</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.3772072755528459</v>
+        <v>0.3777412573780759</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.4696125980471704</v>
+        <v>0.4703056904588027</v>
       </c>
     </row>
     <row r="56">
@@ -4309,19 +4309,19 @@
         <v>30529</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>22042</v>
+        <v>23583</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>38841</v>
+        <v>40427</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1490105557599167</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1075882721924905</v>
+        <v>0.1151113601751139</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1895817113014212</v>
+        <v>0.1973246223817516</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>10</v>
@@ -4330,19 +4330,19 @@
         <v>5732</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>2884</v>
+        <v>2839</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>10209</v>
+        <v>10248</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.07092396642007734</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.03568609075329605</v>
+        <v>0.03513509882371416</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.1263260416006803</v>
+        <v>0.1268106341183249</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>54</v>
@@ -4351,19 +4351,19 @@
         <v>36260</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>27387</v>
+        <v>27496</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>45961</v>
+        <v>46064</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.126922274550379</v>
+        <v>0.1269222745503789</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.09586225532566472</v>
+        <v>0.09624643683903633</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1608789927774226</v>
+        <v>0.1612402312878116</v>
       </c>
     </row>
     <row r="57">
@@ -4380,19 +4380,19 @@
         <v>10288</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>5657</v>
+        <v>5815</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>17296</v>
+        <v>17079</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.05021785025358984</v>
+        <v>0.05021785025358986</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.02761309411026439</v>
+        <v>0.02838252033572576</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.08442085449668463</v>
+        <v>0.08336238904464716</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>5</v>
@@ -4401,19 +4401,19 @@
         <v>2750</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>1034</v>
+        <v>895</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>6400</v>
+        <v>6458</v>
       </c>
       <c r="N57" s="6" t="n">
-        <v>0.034034369445467</v>
+        <v>0.03403436944546701</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.01280017225069312</v>
+        <v>0.01107711328129423</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.07919685153986668</v>
+        <v>0.07990946694676786</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>18</v>
@@ -4422,19 +4422,19 @@
         <v>13039</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>8324</v>
+        <v>8015</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>20070</v>
+        <v>20962</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.04564004402513165</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.02913506962965133</v>
+        <v>0.02805493314126352</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.07025051832611433</v>
+        <v>0.0733753301787146</v>
       </c>
     </row>
     <row r="58">
@@ -4451,19 +4451,19 @@
         <v>4402</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>1690</v>
+        <v>1621</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>9383</v>
+        <v>8738</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.02148548300777637</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.008246596963845032</v>
+        <v>0.007913144557520685</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.04579790866759583</v>
+        <v>0.04264995591742306</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>1</v>
@@ -4475,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>2998</v>
+        <v>2985</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0.00757916296412551</v>
@@ -4484,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.03709948597628721</v>
+        <v>0.03693814895662337</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>7</v>
@@ -4493,19 +4493,19 @@
         <v>5014</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>2017</v>
+        <v>2048</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>10316</v>
+        <v>10304</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.01755181513585567</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.007061915316005742</v>
+        <v>0.007169943290208075</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.03610847417158912</v>
+        <v>0.03606888944037011</v>
       </c>
     </row>
     <row r="59">
@@ -4522,19 +4522,19 @@
         <v>5051</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>1841</v>
+        <v>1709</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>10123</v>
+        <v>10662</v>
       </c>
       <c r="G59" s="6" t="n">
-        <v>0.02465230927735152</v>
+        <v>0.02465230927735153</v>
       </c>
       <c r="H59" s="6" t="n">
-        <v>0.008987461174457621</v>
+        <v>0.008341079226176294</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.04941066735951404</v>
+        <v>0.05204248585723487</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>4</v>
@@ -4543,19 +4543,19 @@
         <v>2341</v>
       </c>
       <c r="L59" s="5" t="n">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>6107</v>
+        <v>5769</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.0289718773756343</v>
       </c>
       <c r="O59" s="6" t="n">
-        <v>0.007745996997996729</v>
+        <v>0.007688148031326713</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.07557056261923595</v>
+        <v>0.07139159292030876</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>10</v>
@@ -4564,19 +4564,19 @@
         <v>7392</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>3941</v>
+        <v>3528</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>12956</v>
+        <v>13885</v>
       </c>
       <c r="U59" s="6" t="n">
-        <v>0.02587418150490367</v>
+        <v>0.02587418150490366</v>
       </c>
       <c r="V59" s="6" t="n">
-        <v>0.01379557594658248</v>
+        <v>0.01235014011821096</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.04535078652756781</v>
+        <v>0.0486023714503787</v>
       </c>
     </row>
     <row r="60">
@@ -4593,19 +4593,19 @@
         <v>1618</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>4955</v>
+        <v>5081</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0.00789767486702349</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.002079354708461509</v>
+        <v>0.002087247317403303</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.02418368033478763</v>
+        <v>0.02480247142000162</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>1</v>
@@ -4617,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>2600</v>
+        <v>2161</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.005714411783562165</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.03216900885103396</v>
+        <v>0.02673841724034099</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>4</v>
@@ -4635,19 +4635,19 @@
         <v>2080</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>461</v>
+        <v>719</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>4853</v>
+        <v>5785</v>
       </c>
       <c r="U60" s="6" t="n">
-        <v>0.007280097260553588</v>
+        <v>0.007280097260553587</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.001613161981407427</v>
+        <v>0.002517541740619233</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.01698714334861018</v>
+        <v>0.02024829396624549</v>
       </c>
     </row>
     <row r="61">
@@ -4711,19 +4711,19 @@
         <v>3401</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>1166</v>
+        <v>1180</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>7995</v>
+        <v>7973</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.01659994981132878</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.005690077242759273</v>
+        <v>0.00575914419106331</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.03902281547695483</v>
+        <v>0.03891515298830648</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>1</v>
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>2811</v>
+        <v>2185</v>
       </c>
       <c r="N62" s="6" t="n">
         <v>0.005345314327049463</v>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.03478805601735632</v>
+        <v>0.0270325777716347</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>6</v>
@@ -4753,19 +4753,19 @@
         <v>3833</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>1512</v>
+        <v>1402</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>8630</v>
+        <v>8716</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.01341636149495739</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.005293982098058418</v>
+        <v>0.004906274178903768</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.03020691664112304</v>
+        <v>0.03051020050870985</v>
       </c>
     </row>
     <row r="63">
@@ -4857,19 +4857,19 @@
         <v>33825</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>26134</v>
+        <v>25984</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>42116</v>
+        <v>41655</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.3135486414354096</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.24225210480637</v>
+        <v>0.2408580140326355</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.3904012954937572</v>
+        <v>0.3861298654136638</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>29</v>
@@ -4878,19 +4878,19 @@
         <v>15331</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>11216</v>
+        <v>11005</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>19572</v>
+        <v>19410</v>
       </c>
       <c r="N64" s="6" t="n">
-        <v>0.4965159154903307</v>
+        <v>0.4965159154903306</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.3632477433289423</v>
+        <v>0.3564078619062189</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.6338464671198516</v>
+        <v>0.6285934816253089</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>81</v>
@@ -4899,19 +4899,19 @@
         <v>49157</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>39844</v>
+        <v>39973</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>57598</v>
+        <v>57885</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.3542653156472632</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.2871498481864884</v>
+        <v>0.2880757166049078</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.4150949261373795</v>
+        <v>0.4171657628084548</v>
       </c>
     </row>
     <row r="65">
@@ -4928,19 +4928,19 @@
         <v>55841</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>46873</v>
+        <v>47567</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>63690</v>
+        <v>63599</v>
       </c>
       <c r="G65" s="6" t="n">
-        <v>0.517629128070994</v>
+        <v>0.5176291280709939</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.4344917193645796</v>
+        <v>0.4409247734523465</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.5903809711181434</v>
+        <v>0.5895394833569009</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>16</v>
@@ -4949,19 +4949,19 @@
         <v>9152</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>5479</v>
+        <v>5647</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>13369</v>
+        <v>13837</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.2963829067040079</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.1774535430883175</v>
+        <v>0.1828768343592829</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.432965568797079</v>
+        <v>0.4481285359105119</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>102</v>
@@ -4970,19 +4970,19 @@
         <v>64993</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>55772</v>
+        <v>54870</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>74687</v>
+        <v>73954</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.4683940374651235</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.4019380771248551</v>
+        <v>0.3954363008710081</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.5382539997751972</v>
+        <v>0.5329688430307095</v>
       </c>
     </row>
     <row r="66">
@@ -4999,19 +4999,19 @@
         <v>9157</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>5487</v>
+        <v>5390</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>15903</v>
+        <v>14971</v>
       </c>
       <c r="G66" s="6" t="n">
-        <v>0.08488033191823109</v>
+        <v>0.08488033191823111</v>
       </c>
       <c r="H66" s="6" t="n">
-        <v>0.05086400830003621</v>
+        <v>0.04996111825988817</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.1474130254915032</v>
+        <v>0.1387780749377892</v>
       </c>
       <c r="J66" s="5" t="n">
         <v>6</v>
@@ -5020,19 +5020,19 @@
         <v>3596</v>
       </c>
       <c r="L66" s="5" t="n">
-        <v>1340</v>
+        <v>1310</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>6702</v>
+        <v>7117</v>
       </c>
       <c r="N66" s="6" t="n">
         <v>0.116446577517596</v>
       </c>
       <c r="O66" s="6" t="n">
-        <v>0.04339745700050983</v>
+        <v>0.0424286329444972</v>
       </c>
       <c r="P66" s="6" t="n">
-        <v>0.2170358723572416</v>
+        <v>0.2304944108621354</v>
       </c>
       <c r="Q66" s="5" t="n">
         <v>19</v>
@@ -5041,19 +5041,19 @@
         <v>12753</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>7582</v>
+        <v>8075</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>18543</v>
+        <v>19131</v>
       </c>
       <c r="U66" s="6" t="n">
         <v>0.09190493533323797</v>
       </c>
       <c r="V66" s="6" t="n">
-        <v>0.05464370143206916</v>
+        <v>0.05819710776770103</v>
       </c>
       <c r="W66" s="6" t="n">
-        <v>0.133634740516324</v>
+        <v>0.1378710551155779</v>
       </c>
     </row>
     <row r="67">
@@ -5070,19 +5070,19 @@
         <v>2913</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>870</v>
+        <v>783</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>6760</v>
+        <v>7211</v>
       </c>
       <c r="G67" s="6" t="n">
-        <v>0.02700255202943669</v>
+        <v>0.02700255202943668</v>
       </c>
       <c r="H67" s="6" t="n">
-        <v>0.008064210226066642</v>
+        <v>0.007256070619659157</v>
       </c>
       <c r="I67" s="6" t="n">
-        <v>0.062660210210384</v>
+        <v>0.06684229262303652</v>
       </c>
       <c r="J67" s="5" t="n">
         <v>1</v>
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>2281</v>
+        <v>2563</v>
       </c>
       <c r="N67" s="6" t="n">
         <v>0.01397583816830198</v>
@@ -5103,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="P67" s="6" t="n">
-        <v>0.07387544068683873</v>
+        <v>0.08300174066362907</v>
       </c>
       <c r="Q67" s="5" t="n">
         <v>5</v>
@@ -5112,19 +5112,19 @@
         <v>3345</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>991</v>
+        <v>1024</v>
       </c>
       <c r="T67" s="5" t="n">
-        <v>7181</v>
+        <v>7305</v>
       </c>
       <c r="U67" s="6" t="n">
         <v>0.02410364856664779</v>
       </c>
       <c r="V67" s="6" t="n">
-        <v>0.007142723530495205</v>
+        <v>0.007381154845958537</v>
       </c>
       <c r="W67" s="6" t="n">
-        <v>0.05174879525635376</v>
+        <v>0.05264445327941725</v>
       </c>
     </row>
     <row r="68">
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>4206</v>
+        <v>4705</v>
       </c>
       <c r="G68" s="6" t="n">
         <v>0.01129761179369542</v>
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="6" t="n">
-        <v>0.03899017389835735</v>
+        <v>0.04361751097160207</v>
       </c>
       <c r="J68" s="5" t="n">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="T68" s="5" t="n">
-        <v>4005</v>
+        <v>4315</v>
       </c>
       <c r="U68" s="6" t="n">
         <v>0.008783494549767897</v>
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="W68" s="6" t="n">
-        <v>0.0288661412331094</v>
+        <v>0.03109684869084079</v>
       </c>
     </row>
     <row r="69">
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>5224</v>
+        <v>4719</v>
       </c>
       <c r="G69" s="6" t="n">
         <v>0.007953804513293019</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="6" t="n">
-        <v>0.04842592399933893</v>
+        <v>0.0437402869903699</v>
       </c>
       <c r="J69" s="5" t="n">
         <v>0</v>
@@ -5241,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="T69" s="5" t="n">
-        <v>4739</v>
+        <v>4922</v>
       </c>
       <c r="U69" s="6" t="n">
         <v>0.006183802370640388</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="W69" s="6" t="n">
-        <v>0.03415516690263504</v>
+        <v>0.03547171688970495</v>
       </c>
     </row>
     <row r="70">
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>6650</v>
+        <v>7075</v>
       </c>
       <c r="G71" s="6" t="n">
         <v>0.01267395632870388</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="6" t="n">
-        <v>0.06163897963061162</v>
+        <v>0.06558662962447542</v>
       </c>
       <c r="J71" s="5" t="n">
         <v>0</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="T71" s="5" t="n">
-        <v>6821</v>
+        <v>8024</v>
       </c>
       <c r="U71" s="6" t="n">
         <v>0.009853553863418232</v>
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="W71" s="6" t="n">
-        <v>0.04915520596477174</v>
+        <v>0.05783059697501079</v>
       </c>
     </row>
     <row r="72">
@@ -5377,19 +5377,19 @@
         <v>2698</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>701</v>
+        <v>734</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>7106</v>
+        <v>6483</v>
       </c>
       <c r="G72" s="6" t="n">
         <v>0.02501397391023624</v>
       </c>
       <c r="H72" s="6" t="n">
-        <v>0.006502333739017049</v>
+        <v>0.006800485669206616</v>
       </c>
       <c r="I72" s="6" t="n">
-        <v>0.06587293753178555</v>
+        <v>0.06009857289476864</v>
       </c>
       <c r="J72" s="5" t="n">
         <v>2</v>
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="M72" s="5" t="n">
-        <v>9042</v>
+        <v>7678</v>
       </c>
       <c r="N72" s="6" t="n">
         <v>0.07667876211976342</v>
@@ -5410,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="P72" s="6" t="n">
-        <v>0.2928329819066085</v>
+        <v>0.2486587596236443</v>
       </c>
       <c r="Q72" s="5" t="n">
         <v>6</v>
@@ -5419,19 +5419,19 @@
         <v>5066</v>
       </c>
       <c r="S72" s="5" t="n">
-        <v>1922</v>
+        <v>2010</v>
       </c>
       <c r="T72" s="5" t="n">
-        <v>11152</v>
+        <v>12307</v>
       </c>
       <c r="U72" s="6" t="n">
         <v>0.03651121220390118</v>
       </c>
       <c r="V72" s="6" t="n">
-        <v>0.01384860322823739</v>
+        <v>0.01448704282943944</v>
       </c>
       <c r="W72" s="6" t="n">
-        <v>0.08036915777274779</v>
+        <v>0.08869578494475142</v>
       </c>
     </row>
     <row r="73">
@@ -5523,19 +5523,19 @@
         <v>351699</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>313865</v>
+        <v>314638</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>391938</v>
+        <v>393141</v>
       </c>
       <c r="G74" s="6" t="n">
         <v>0.2102711713884199</v>
       </c>
       <c r="H74" s="6" t="n">
-        <v>0.187651166168025</v>
+        <v>0.1881134146452844</v>
       </c>
       <c r="I74" s="6" t="n">
-        <v>0.234328713646878</v>
+        <v>0.2350483824109751</v>
       </c>
       <c r="J74" s="5" t="n">
         <v>521</v>
@@ -5544,19 +5544,19 @@
         <v>365973</v>
       </c>
       <c r="L74" s="5" t="n">
-        <v>338100</v>
+        <v>337845</v>
       </c>
       <c r="M74" s="5" t="n">
-        <v>392525</v>
+        <v>391855</v>
       </c>
       <c r="N74" s="6" t="n">
         <v>0.4047639016253123</v>
       </c>
       <c r="O74" s="6" t="n">
-        <v>0.3739366568341251</v>
+        <v>0.3736538352065686</v>
       </c>
       <c r="P74" s="6" t="n">
-        <v>0.434130010433148</v>
+        <v>0.4333892271482844</v>
       </c>
       <c r="Q74" s="5" t="n">
         <v>859</v>
@@ -5565,19 +5565,19 @@
         <v>717672</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>659966</v>
+        <v>674547</v>
       </c>
       <c r="T74" s="5" t="n">
-        <v>760980</v>
+        <v>770932</v>
       </c>
       <c r="U74" s="6" t="n">
         <v>0.2785171321519571</v>
       </c>
       <c r="V74" s="6" t="n">
-        <v>0.2561222360054872</v>
+        <v>0.2617809412619241</v>
       </c>
       <c r="W74" s="6" t="n">
-        <v>0.2953240318678694</v>
+        <v>0.2991864070789695</v>
       </c>
     </row>
     <row r="75">
@@ -5594,19 +5594,19 @@
         <v>684819</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>639323</v>
+        <v>639748</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>731841</v>
+        <v>727593</v>
       </c>
       <c r="G75" s="6" t="n">
         <v>0.4094346896149165</v>
       </c>
       <c r="H75" s="6" t="n">
-        <v>0.382233446876589</v>
+        <v>0.382488064093283</v>
       </c>
       <c r="I75" s="6" t="n">
-        <v>0.437547515125859</v>
+        <v>0.4350082202881795</v>
       </c>
       <c r="J75" s="5" t="n">
         <v>396</v>
@@ -5615,19 +5615,19 @@
         <v>290144</v>
       </c>
       <c r="L75" s="5" t="n">
-        <v>263572</v>
+        <v>264372</v>
       </c>
       <c r="M75" s="5" t="n">
-        <v>316763</v>
+        <v>316225</v>
       </c>
       <c r="N75" s="6" t="n">
-        <v>0.320897590135988</v>
+        <v>0.3208975901359879</v>
       </c>
       <c r="O75" s="6" t="n">
-        <v>0.2915089331000998</v>
+        <v>0.2923931300004675</v>
       </c>
       <c r="P75" s="6" t="n">
-        <v>0.3503377452865236</v>
+        <v>0.3497426730812738</v>
       </c>
       <c r="Q75" s="5" t="n">
         <v>1077</v>
@@ -5636,19 +5636,19 @@
         <v>974964</v>
       </c>
       <c r="S75" s="5" t="n">
-        <v>926811</v>
+        <v>926564</v>
       </c>
       <c r="T75" s="5" t="n">
-        <v>1027030</v>
+        <v>1027909</v>
       </c>
       <c r="U75" s="6" t="n">
         <v>0.3783677216629688</v>
       </c>
       <c r="V75" s="6" t="n">
-        <v>0.3596803249838624</v>
+        <v>0.3595845516559409</v>
       </c>
       <c r="W75" s="6" t="n">
-        <v>0.3985737030475421</v>
+        <v>0.3989149752780309</v>
       </c>
     </row>
     <row r="76">
@@ -5665,19 +5665,19 @@
         <v>359318</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>323559</v>
+        <v>323435</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>400817</v>
+        <v>397415</v>
       </c>
       <c r="G76" s="6" t="n">
-        <v>0.214826474165437</v>
+        <v>0.2148264741654371</v>
       </c>
       <c r="H76" s="6" t="n">
-        <v>0.1934469755591343</v>
+        <v>0.1933730302977586</v>
       </c>
       <c r="I76" s="6" t="n">
-        <v>0.2396375158214717</v>
+        <v>0.237603830246391</v>
       </c>
       <c r="J76" s="5" t="n">
         <v>172</v>
@@ -5686,19 +5686,19 @@
         <v>147412</v>
       </c>
       <c r="L76" s="5" t="n">
-        <v>127836</v>
+        <v>127601</v>
       </c>
       <c r="M76" s="5" t="n">
-        <v>170135</v>
+        <v>173493</v>
       </c>
       <c r="N76" s="6" t="n">
         <v>0.1630362557576519</v>
       </c>
       <c r="O76" s="6" t="n">
-        <v>0.1413856945480666</v>
+        <v>0.1411262548764362</v>
       </c>
       <c r="P76" s="6" t="n">
-        <v>0.1881684248551403</v>
+        <v>0.191882207799674</v>
       </c>
       <c r="Q76" s="5" t="n">
         <v>487</v>
@@ -5707,19 +5707,19 @@
         <v>506730</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>464884</v>
+        <v>459007</v>
       </c>
       <c r="T76" s="5" t="n">
-        <v>550805</v>
+        <v>547074</v>
       </c>
       <c r="U76" s="6" t="n">
         <v>0.1966536961439257</v>
       </c>
       <c r="V76" s="6" t="n">
-        <v>0.180414023807672</v>
+        <v>0.1781331866199548</v>
       </c>
       <c r="W76" s="6" t="n">
-        <v>0.2137587376352942</v>
+        <v>0.2123107944644624</v>
       </c>
     </row>
     <row r="77">
@@ -5736,19 +5736,19 @@
         <v>115279</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>93056</v>
+        <v>91561</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>141865</v>
+        <v>139188</v>
       </c>
       <c r="G77" s="6" t="n">
-        <v>0.06892193484015509</v>
+        <v>0.0689219348401551</v>
       </c>
       <c r="H77" s="6" t="n">
-        <v>0.05563566142686358</v>
+        <v>0.05474187832391799</v>
       </c>
       <c r="I77" s="6" t="n">
-        <v>0.08481694569115693</v>
+        <v>0.08321693640385493</v>
       </c>
       <c r="J77" s="5" t="n">
         <v>43</v>
@@ -5757,19 +5757,19 @@
         <v>36449</v>
       </c>
       <c r="L77" s="5" t="n">
-        <v>25872</v>
+        <v>25444</v>
       </c>
       <c r="M77" s="5" t="n">
-        <v>49892</v>
+        <v>48975</v>
       </c>
       <c r="N77" s="6" t="n">
         <v>0.04031282309392393</v>
       </c>
       <c r="O77" s="6" t="n">
-        <v>0.02861397905528913</v>
+        <v>0.02814108373775883</v>
       </c>
       <c r="P77" s="6" t="n">
-        <v>0.05518059773773687</v>
+        <v>0.05416639806946592</v>
       </c>
       <c r="Q77" s="5" t="n">
         <v>143</v>
@@ -5778,19 +5778,19 @@
         <v>151728</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>126165</v>
+        <v>128751</v>
       </c>
       <c r="T77" s="5" t="n">
-        <v>179715</v>
+        <v>181166</v>
       </c>
       <c r="U77" s="6" t="n">
         <v>0.0588832238028076</v>
       </c>
       <c r="V77" s="6" t="n">
-        <v>0.04896259108303236</v>
+        <v>0.04996622199315807</v>
       </c>
       <c r="W77" s="6" t="n">
-        <v>0.06974460593082754</v>
+        <v>0.07030767697546417</v>
       </c>
     </row>
     <row r="78">
@@ -5807,19 +5807,19 @@
         <v>73362</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>56209</v>
+        <v>54854</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>96938</v>
+        <v>98000</v>
       </c>
       <c r="G78" s="6" t="n">
-        <v>0.04386131115660632</v>
+        <v>0.04386131115660631</v>
       </c>
       <c r="H78" s="6" t="n">
-        <v>0.03360577741538257</v>
+        <v>0.03279595300830863</v>
       </c>
       <c r="I78" s="6" t="n">
-        <v>0.05795636550689296</v>
+        <v>0.05859150598600831</v>
       </c>
       <c r="J78" s="5" t="n">
         <v>30</v>
@@ -5828,19 +5828,19 @@
         <v>27966</v>
       </c>
       <c r="L78" s="5" t="n">
-        <v>18359</v>
+        <v>18960</v>
       </c>
       <c r="M78" s="5" t="n">
-        <v>40840</v>
+        <v>41378</v>
       </c>
       <c r="N78" s="6" t="n">
         <v>0.03093057918135106</v>
       </c>
       <c r="O78" s="6" t="n">
-        <v>0.02030492278951095</v>
+        <v>0.02096963553644898</v>
       </c>
       <c r="P78" s="6" t="n">
-        <v>0.04516925897345717</v>
+        <v>0.0457636116555819</v>
       </c>
       <c r="Q78" s="5" t="n">
         <v>89</v>
@@ -5849,19 +5849,19 @@
         <v>101329</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>79620</v>
+        <v>81643</v>
       </c>
       <c r="T78" s="5" t="n">
-        <v>124927</v>
+        <v>124105</v>
       </c>
       <c r="U78" s="6" t="n">
         <v>0.03932401957788131</v>
       </c>
       <c r="V78" s="6" t="n">
-        <v>0.03089920606719212</v>
+        <v>0.03168452292820136</v>
       </c>
       <c r="W78" s="6" t="n">
-        <v>0.04848212320575585</v>
+        <v>0.04816329328196611</v>
       </c>
     </row>
     <row r="79">
@@ -5878,19 +5878,19 @@
         <v>55075</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>40225</v>
+        <v>41489</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>74587</v>
+        <v>74435</v>
       </c>
       <c r="G79" s="6" t="n">
         <v>0.0329275750844608</v>
       </c>
       <c r="H79" s="6" t="n">
-        <v>0.02404931161071296</v>
+        <v>0.0248048993473278</v>
       </c>
       <c r="I79" s="6" t="n">
-        <v>0.04459357438548876</v>
+        <v>0.04450264895565707</v>
       </c>
       <c r="J79" s="5" t="n">
         <v>26</v>
@@ -5899,19 +5899,19 @@
         <v>25710</v>
       </c>
       <c r="L79" s="5" t="n">
-        <v>17335</v>
+        <v>17301</v>
       </c>
       <c r="M79" s="5" t="n">
-        <v>38895</v>
+        <v>40647</v>
       </c>
       <c r="N79" s="6" t="n">
-        <v>0.02843468306530555</v>
+        <v>0.02843468306530556</v>
       </c>
       <c r="O79" s="6" t="n">
-        <v>0.01917193080048829</v>
+        <v>0.01913437627409454</v>
       </c>
       <c r="P79" s="6" t="n">
-        <v>0.04301736764626221</v>
+        <v>0.04495482465758718</v>
       </c>
       <c r="Q79" s="5" t="n">
         <v>74</v>
@@ -5920,19 +5920,19 @@
         <v>80784</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>62887</v>
+        <v>64026</v>
       </c>
       <c r="T79" s="5" t="n">
-        <v>104788</v>
+        <v>105746</v>
       </c>
       <c r="U79" s="6" t="n">
         <v>0.03135105480999804</v>
       </c>
       <c r="V79" s="6" t="n">
-        <v>0.02440551236397031</v>
+        <v>0.0248473132460808</v>
       </c>
       <c r="W79" s="6" t="n">
-        <v>0.04066649957496769</v>
+        <v>0.04103833664603607</v>
       </c>
     </row>
     <row r="80">
@@ -5949,19 +5949,19 @@
         <v>5682</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>2450</v>
+        <v>2390</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>10962</v>
+        <v>11335</v>
       </c>
       <c r="G80" s="6" t="n">
-        <v>0.00339692068255142</v>
+        <v>0.003396920682551421</v>
       </c>
       <c r="H80" s="6" t="n">
-        <v>0.001464968369948175</v>
+        <v>0.001429109011368573</v>
       </c>
       <c r="I80" s="6" t="n">
-        <v>0.006554039640688466</v>
+        <v>0.006777027302294038</v>
       </c>
       <c r="J80" s="5" t="n">
         <v>6</v>
@@ -5970,19 +5970,19 @@
         <v>4875</v>
       </c>
       <c r="L80" s="5" t="n">
-        <v>1719</v>
+        <v>2016</v>
       </c>
       <c r="M80" s="5" t="n">
-        <v>10077</v>
+        <v>10685</v>
       </c>
       <c r="N80" s="6" t="n">
         <v>0.005392199098678801</v>
       </c>
       <c r="O80" s="6" t="n">
-        <v>0.00190152260306493</v>
+        <v>0.002230050992326487</v>
       </c>
       <c r="P80" s="6" t="n">
-        <v>0.01114501048426453</v>
+        <v>0.01181774810556111</v>
       </c>
       <c r="Q80" s="5" t="n">
         <v>14</v>
@@ -5991,19 +5991,19 @@
         <v>10557</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>6078</v>
+        <v>5934</v>
       </c>
       <c r="T80" s="5" t="n">
-        <v>18113</v>
+        <v>17632</v>
       </c>
       <c r="U80" s="6" t="n">
-        <v>0.00409704809776898</v>
+        <v>0.004097048097768981</v>
       </c>
       <c r="V80" s="6" t="n">
-        <v>0.00235861467508351</v>
+        <v>0.002302698365413743</v>
       </c>
       <c r="W80" s="6" t="n">
-        <v>0.007029447076320031</v>
+        <v>0.006842815249437167</v>
       </c>
     </row>
     <row r="81">
@@ -6020,19 +6020,19 @@
         <v>6811</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>2644</v>
+        <v>2780</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>14539</v>
+        <v>15051</v>
       </c>
       <c r="G81" s="6" t="n">
-        <v>0.004072086407229872</v>
+        <v>0.004072086407229873</v>
       </c>
       <c r="H81" s="6" t="n">
-        <v>0.001581017250056394</v>
+        <v>0.001662109649397314</v>
       </c>
       <c r="I81" s="6" t="n">
-        <v>0.008692493565067041</v>
+        <v>0.008998540047355884</v>
       </c>
       <c r="J81" s="5" t="n">
         <v>0</v>
@@ -6057,16 +6057,16 @@
         <v>2509</v>
       </c>
       <c r="T81" s="5" t="n">
-        <v>15291</v>
+        <v>16530</v>
       </c>
       <c r="U81" s="6" t="n">
         <v>0.002643223493767473</v>
       </c>
       <c r="V81" s="6" t="n">
-        <v>0.0009735929402089772</v>
+        <v>0.0009738536063184939</v>
       </c>
       <c r="W81" s="6" t="n">
-        <v>0.00593416764288508</v>
+        <v>0.006414949650279416</v>
       </c>
     </row>
     <row r="82">
@@ -6083,19 +6083,19 @@
         <v>20553</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>12740</v>
+        <v>13191</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>31372</v>
+        <v>31163</v>
       </c>
       <c r="G82" s="6" t="n">
         <v>0.01228783666022304</v>
       </c>
       <c r="H82" s="6" t="n">
-        <v>0.007616683754732759</v>
+        <v>0.007886656711370567</v>
       </c>
       <c r="I82" s="6" t="n">
-        <v>0.01875618508999986</v>
+        <v>0.01863174889443967</v>
       </c>
       <c r="J82" s="5" t="n">
         <v>7</v>
@@ -6104,19 +6104,19 @@
         <v>5635</v>
       </c>
       <c r="L82" s="5" t="n">
-        <v>2368</v>
+        <v>2514</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>12944</v>
+        <v>12451</v>
       </c>
       <c r="N82" s="6" t="n">
-        <v>0.006231968041788436</v>
+        <v>0.006231968041788437</v>
       </c>
       <c r="O82" s="6" t="n">
-        <v>0.002618525033077978</v>
+        <v>0.002780778044981141</v>
       </c>
       <c r="P82" s="6" t="n">
-        <v>0.01431615009096035</v>
+        <v>0.01377026376070766</v>
       </c>
       <c r="Q82" s="5" t="n">
         <v>30</v>
@@ -6125,19 +6125,19 @@
         <v>26187</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>17187</v>
+        <v>17695</v>
       </c>
       <c r="T82" s="5" t="n">
-        <v>36624</v>
+        <v>37935</v>
       </c>
       <c r="U82" s="6" t="n">
         <v>0.01016288025892497</v>
       </c>
       <c r="V82" s="6" t="n">
-        <v>0.006670165705510878</v>
+        <v>0.006867335059529469</v>
       </c>
       <c r="W82" s="6" t="n">
-        <v>0.01421334324736214</v>
+        <v>0.01472192713846223</v>
       </c>
     </row>
     <row r="83">
